--- a/heb_stop_words.xlsx
+++ b/heb_stop_words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adinn\Git\Personal\SmartResidentRequestsMunicipality\municipality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD89F3A-EF6A-461E-87F4-85DAC8DA7A38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16661E01-3464-4107-AF62-A2DE1AC03880}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2670" yWindow="2910" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2377,7 +2377,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A499"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>

--- a/heb_stop_words.xlsx
+++ b/heb_stop_words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adinn\Git\Personal\SmartResidentRequestsMunicipality\municipality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16661E01-3464-4107-AF62-A2DE1AC03880}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85E51F9-FCB1-42D8-9D54-13A094EA278C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2670" yWindow="2910" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2378,7 +2378,7 @@
   <dimension ref="A1:A499"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
